--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Profile Page 1" sheetId="1" r:id="rId4"/>
     <sheet name="Profile Page 2" sheetId="5" r:id="rId5"/>
     <sheet name="Reports" sheetId="6" r:id="rId6"/>
+    <sheet name="Testing Requirements" sheetId="7" r:id="rId7"/>
+    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -200,13 +202,172 @@
   </si>
   <si>
     <t>Weekly Update w/e 03 Aug</t>
+  </si>
+  <si>
+    <t>30 User profiles Set up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Organizations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open </t>
+  </si>
+  <si>
+    <t>Need to understand what is needed</t>
+  </si>
+  <si>
+    <t>Final Project Report</t>
+  </si>
+  <si>
+    <t>1   </t>
+  </si>
+  <si>
+    <t>July 23rd</t>
+  </si>
+  <si>
+    <t>Work on website</t>
+  </si>
+  <si>
+    <t>12   </t>
+  </si>
+  <si>
+    <t>July 30th</t>
+  </si>
+  <si>
+    <r>
+      <t>Final product due </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>August 5th</t>
+    </r>
+  </si>
+  <si>
+    <t>Grading Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design document (Sunday, June 24th): 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database implementation (Sunday, July 1st): 5% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype (Sunday, July 15th): 5% </t>
+  </si>
+  <si>
+    <t>Software Test Report (Sunday, July 22nd) 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementation (Sunday, August 5th): 40%</t>
+  </si>
+  <si>
+    <t>Documentation: 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mid term exam (May 30th): 20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three staff members will test the functionality described in the Project </t>
+  </si>
+  <si>
+    <t>Three staff members will test the functionality described in the Project Overview, this will include:</t>
+  </si>
+  <si>
+    <t>Registering as users and creating profiles;</t>
+  </si>
+  <si>
+    <t>Browsing users (without specific search terms);</t>
+  </si>
+  <si>
+    <t>Searching for users (including each other);</t>
+  </si>
+  <si>
+    <t>Observing the automatic suggestions;</t>
+  </si>
+  <si>
+    <t>Connecting to each other</t>
+  </si>
+  <si>
+    <t>Logging in as site administrator (your final report will need to describe how to do this, see below)</t>
+  </si>
+  <si>
+    <t>The demo will be conducted using two different web browsers (we recommend Firefox and Google Chrome, but the group can decide);</t>
+  </si>
+  <si>
+    <t>A final report using the headings described below needs to be uploaded to Moodle by August 5th</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>High level functionality</t>
+  </si>
+  <si>
+    <t>Web page mock ups</t>
+  </si>
+  <si>
+    <t>Database tables</t>
+  </si>
+  <si>
+    <t>User testing (how you reacted to the user tests from deliverable 5)</t>
+  </si>
+  <si>
+    <t>Extras (any extra functionality that you added over the initial brief)</t>
+  </si>
+  <si>
+    <t>Administration detail (how can we log on as administrator to your site)</t>
+  </si>
+  <si>
+    <t>Sources (list any items such as images that you took from somewhere, showing the image and the original source)</t>
+  </si>
+  <si>
+    <t>In particular, note any deviations from the original design</t>
+  </si>
+  <si>
+    <t>additonal thoughts based on the testing exercise</t>
+  </si>
+  <si>
+    <t>1. Was there an index.html file? Was it obvious what the website was from the first page?</t>
+  </si>
+  <si>
+    <t>1. What is the site for? Describe the industry that the site targets.</t>
+  </si>
+  <si>
+    <t>1. How well did the individual registration section work? What happened when you put in malformed input (for example, mismatched passwords, wrong types, etc.)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Did the search function work? </t>
+  </si>
+  <si>
+    <t>1. What was the “look and feel” of the site like? Was it pleasant to use or were there rendering problems and/or missing links?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>need to update current mockups</t>
+  </si>
+  <si>
+    <t>take from original and update</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update if needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,16 +375,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -231,12 +417,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE8E8E8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE8E8E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE8E8E8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE8E8E8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE8E8E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE8E8E8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE8E8E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE8E8E8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE8E8E8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE8E8E8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE8E8E8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE8E8E8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE8E8E8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE8E8E8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,18 +1284,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D5"/>
+  <dimension ref="C4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="108.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>55</v>
       </c>
@@ -1003,15 +1304,356 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
-    <sheet name="Register" sheetId="3" r:id="rId2"/>
-    <sheet name="meeting space" sheetId="4" r:id="rId3"/>
-    <sheet name="Profile Page 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Profile Page 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Reports" sheetId="6" r:id="rId6"/>
-    <sheet name="Testing Requirements" sheetId="7" r:id="rId7"/>
-    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId8"/>
+    <sheet name="Logon" sheetId="9" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="meeting space" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile Page 1" sheetId="1" r:id="rId5"/>
+    <sheet name="Profile Page 2" sheetId="5" r:id="rId6"/>
+    <sheet name="Reports" sheetId="6" r:id="rId7"/>
+    <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
+    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -361,6 +362,60 @@
   </si>
   <si>
     <t>Update if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu not working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot Password Option </t>
+  </si>
+  <si>
+    <t>Allowed me to enter email but did not receive email</t>
+  </si>
+  <si>
+    <t>Basic functionality of this Page only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logon  Type email Deirdre.Shanahan@gmail.com</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Logon as Lisa Sharp Password welcomE01#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowed me to logon and took me to Meeting Space </t>
+  </si>
+  <si>
+    <t>Welcome Lisa at the top of meeting space</t>
+  </si>
+  <si>
+    <t>looks good so far</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Logon as  Carol.James@gmail.com password welcomE01#</t>
+  </si>
+  <si>
+    <t>Logon opttion</t>
+  </si>
+  <si>
+    <t>Brought me to meeting space but error because of Profile Screen 2</t>
   </si>
 </sst>
 </file>
@@ -395,7 +450,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -537,6 +598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +932,116 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="40" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
@@ -935,12 +1101,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1172,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E20"/>
   <sheetViews>
@@ -1268,7 +1442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1282,11 +1456,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1409,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
@@ -1573,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
@@ -1586,7 +1760,7 @@
     <col min="5" max="5" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>62</v>
       </c>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
-    <sheet name="Logon" sheetId="9" r:id="rId2"/>
+    <sheet name="Testing  Details " sheetId="9" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="meeting space" sheetId="4" r:id="rId4"/>
     <sheet name="Profile Page 1" sheetId="1" r:id="rId5"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -412,10 +412,44 @@
     <t>Logon as  Carol.James@gmail.com password welcomE01#</t>
   </si>
   <si>
-    <t>Logon opttion</t>
-  </si>
-  <si>
     <t>Brought me to meeting space but error because of Profile Screen 2</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Logon option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First screen works, second screen display but </t>
+  </si>
+  <si>
+    <t>logon as Lisa Sharp</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>Logon Option/Meting Space. Edit profile</t>
+  </si>
+  <si>
+    <t>Logon Option/Meeting Space/ Edit profile</t>
+  </si>
+  <si>
+    <t>First screen work , second screen works until I press save and it abends
+error "Warning: getimagesize(): Filename cannot be empty in C:\Users\User\Documents\GitHub\WebProject\Web\UpdateProfile2.php on line 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First screen working , second screen works until I Save
+Get error "Warning: getimagesize(): Filename cannot be empty in C:\Users\User\Documents\GitHub\WebProject\Web\UpdateProfile2.php on line 24"  +
+Notice: Undefined index: check_list in C:\Users\User\Documents\GitHub\WebProject\Web\UpdateProfile2.php on line 62
+</t>
+  </si>
+  <si>
+    <t>Logon as Carol.James@gmail.com Password WelcomeE01</t>
+  </si>
+  <si>
+    <t>Test 6</t>
   </si>
 </sst>
 </file>
@@ -944,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,12 +1060,63 @@
         <v>121</v>
       </c>
       <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1189,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -421,9 +421,6 @@
     <t>Logon option</t>
   </si>
   <si>
-    <t xml:space="preserve">First screen works, second screen display but </t>
-  </si>
-  <si>
     <t>logon as Lisa Sharp</t>
   </si>
   <si>
@@ -450,6 +447,42 @@
   </si>
   <si>
     <t>Test 6</t>
+  </si>
+  <si>
+    <t>First screen works, second screen display but save not functioning</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>logon/Meeting Space</t>
+  </si>
+  <si>
+    <t>chatting with Paul even though she wants Female ?</t>
+  </si>
+  <si>
+    <t>Bad Data in Data base</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are chatting with  No Mathces Found </t>
+  </si>
+  <si>
+    <t>Need clarify on message</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matched with Male when she wants a female </t>
+  </si>
+  <si>
+    <t>Logon as Jacob.Newman@gmail.com Password welcomeE01</t>
+  </si>
+  <si>
+    <t>none of the buttons in system  functional yet</t>
   </si>
 </sst>
 </file>
@@ -978,20 +1011,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="40" style="7" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>113</v>
       </c>
@@ -1002,7 +1036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>111</v>
       </c>
@@ -1019,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>101</v>
       </c>
@@ -1033,7 +1067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -1046,13 +1080,19 @@
       <c r="E6" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>120</v>
       </c>
@@ -1066,10 +1106,10 @@
         <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>123</v>
       </c>
@@ -1077,46 +1117,120 @@
         <v>121</v>
       </c>
       <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1274,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1546,17 +1660,17 @@
   <dimension ref="C4:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="108.140625" customWidth="1"/>
+    <col min="3" max="3" width="83" style="7" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
@@ -1564,7 +1678,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
@@ -1572,7 +1686,7 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
@@ -1580,7 +1694,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D8" t="s">
@@ -1591,7 +1705,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D9" t="s">
@@ -1602,7 +1716,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
@@ -1613,7 +1727,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D11" t="s">
@@ -1624,7 +1738,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D12" t="s">
@@ -1632,7 +1746,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
@@ -1640,15 +1754,15 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D15" t="s">
@@ -1656,7 +1770,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D16" t="s">
@@ -1665,6 +1779,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Profile Page 2" sheetId="5" r:id="rId6"/>
     <sheet name="Reports" sheetId="6" r:id="rId7"/>
     <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
-    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId9"/>
+    <sheet name="Test Data Creation notes" sheetId="11" r:id="rId9"/>
+    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="210">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -484,12 +486,230 @@
   <si>
     <t>none of the buttons in system  functional yet</t>
   </si>
+  <si>
+    <t>Section Marks Report 20% 
+Usability 20%
+ Registration 10%
+ Profiles 10%
+ Browse 10% 
+Search 15% 
+Auto-suggest 5%
+ Administration 10%
+ Extras Up 10% extra credit</t>
+  </si>
+  <si>
+    <t>logon as Lisa Sharp and like Angela.Martin</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>logon as as Angela.Marting - to check if Test 10  Lisa is someone interetsed in me</t>
+  </si>
+  <si>
+    <t>Angela appears as a match not interested in me</t>
+  </si>
+  <si>
+    <t>Adrian to check</t>
+  </si>
+  <si>
+    <t>Logon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logon Details  remembering previous emails </t>
+  </si>
+  <si>
+    <t>not remembering Lisa</t>
+  </si>
+  <si>
+    <t>Meeting Space</t>
+  </si>
+  <si>
+    <t>IF user selects someone - nothing happens unless the person they liked has liked them.</t>
+  </si>
+  <si>
+    <t>Make sure and create test data with Users who have already liked the person</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Action on test Data to do test</t>
+  </si>
+  <si>
+    <t>test 14</t>
+  </si>
+  <si>
+    <t>meeting space select people I may be interested in</t>
+  </si>
+  <si>
+    <t>test 15</t>
+  </si>
+  <si>
+    <t>allowed me to select and view profile</t>
+  </si>
+  <si>
+    <t>test 16</t>
+  </si>
+  <si>
+    <r>
+      <t>Aborted with error " A session had already been started - ignoring session_start() in C:\Users\User\Documents\GitHub\WebProject\Web\ViewMatchProfile.php on line </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>18"</t>
+    </r>
+  </si>
+  <si>
+    <t>Logged on as john.doe@gmail.com 
+select someone I like and view profile and like on view profile</t>
+  </si>
+  <si>
+    <t>logon Option</t>
+  </si>
+  <si>
+    <t>Edit profile</t>
+  </si>
+  <si>
+    <t>select correct partner I want to meet</t>
+  </si>
+  <si>
+    <t>mathces found</t>
+  </si>
+  <si>
+    <t>see if I get the correct sex partner</t>
+  </si>
+  <si>
+    <t>buttons Funciton</t>
+  </si>
+  <si>
+    <t>TEst10</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>check like button</t>
+  </si>
+  <si>
+    <t>interested in me test</t>
+  </si>
+  <si>
+    <t>remember login details</t>
+  </si>
+  <si>
+    <t>view someone I am interested in and like them</t>
+  </si>
+  <si>
+    <t>allows me to select</t>
+  </si>
+  <si>
+    <t>select someone I am interetsed in</t>
+  </si>
+  <si>
+    <t>selected someone I like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logged on as john.doe@gmail.com  and liked Lucas 
+</t>
+  </si>
+  <si>
+    <t>logon/meeting Space</t>
+  </si>
+  <si>
+    <t>Check Database</t>
+  </si>
+  <si>
+    <t>Test 17</t>
+  </si>
+  <si>
+    <t>Check if Interetsed in me works</t>
+  </si>
+  <si>
+    <t>logged on bella.walsh - Una nash interested in me</t>
+  </si>
+  <si>
+    <t>check chat funtion</t>
+  </si>
+  <si>
+    <t>Test 18</t>
+  </si>
+  <si>
+    <t>Broke with error</t>
+  </si>
+  <si>
+    <t>Interested in Me</t>
+  </si>
+  <si>
+    <t>Please note following flow.  System Match, Intereseted in me, Chat</t>
+  </si>
+  <si>
+    <t>if you say goodbye on any of these they will not appear again</t>
+  </si>
+  <si>
+    <t>create Admin user</t>
+  </si>
+  <si>
+    <t>user profile has IS ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>test 19</t>
+  </si>
+  <si>
+    <t>Cap off 100KB on Image</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>Admin User needs to go directly to Admin Screen</t>
+  </si>
+  <si>
+    <t>logon as  16230124@studentmail.ul.ie</t>
+  </si>
+  <si>
+    <t>went stratight to meeting space</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>Admin User need to be able to look at all users reported</t>
+  </si>
+  <si>
+    <t>admin useer need to be able to supend account</t>
+  </si>
+  <si>
+    <t>Admins user need to be able to terminate account</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>admins need to be able to assign user as administrator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +736,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -537,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,88 +803,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE8E8E8"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE8E8E8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE8E8E8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE8E8E8"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE8E8E8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE8E8E8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE8E8E8"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE8E8E8"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE8E8E8"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,8 +1156,136 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1011,227 +1295,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>120</v>
       </c>
       <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>123</v>
       </c>
       <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>126</v>
       </c>
       <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
         <v>131</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>134</v>
       </c>
       <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>138</v>
       </c>
       <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
         <v>121</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
       <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>141</v>
       </c>
       <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
       <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1768,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,12 +2188,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="83" style="7" customWidth="1"/>
+    <col min="3" max="3" width="83" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
@@ -1678,7 +2201,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
@@ -1686,7 +2209,7 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
@@ -1694,7 +2217,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D8" t="s">
@@ -1705,7 +2228,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D9" t="s">
@@ -1716,7 +2239,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D10" t="s">
@@ -1727,7 +2250,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D11" t="s">
@@ -1738,7 +2261,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D12" t="s">
@@ -1746,7 +2269,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
@@ -1754,7 +2277,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D14" t="s">
@@ -1762,7 +2285,7 @@
       </c>
     </row>
     <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D15" t="s">
@@ -1770,7 +2293,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D16" t="s">
@@ -1787,18 +2310,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="110.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="110.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
@@ -1806,7 +2329,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
@@ -1817,7 +2340,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C6" t="s">
@@ -1825,7 +2348,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
@@ -1833,7 +2356,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C8" t="s">
@@ -1841,7 +2364,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C9" t="s">
@@ -1849,7 +2372,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C10" t="s">
@@ -1857,7 +2380,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
@@ -1865,7 +2388,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C12" t="s">
@@ -1873,7 +2396,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C13" t="s">
@@ -1881,7 +2404,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14" t="s">
@@ -1889,7 +2412,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C15" t="s">
@@ -1897,12 +2420,12 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C18" t="s">
@@ -1910,7 +2433,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C19" t="s">
@@ -1918,7 +2441,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C20" t="s">
@@ -1926,7 +2449,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C21" t="s">
@@ -1934,7 +2457,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C22" t="s">
@@ -1949,85 +2472,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>74</v>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -807,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -822,6 +822,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,7 +1301,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1590,7 @@
       <c r="B20" t="s">
         <v>175</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D20" t="s">

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -681,9 +681,6 @@
     <t>logon as  16230124@studentmail.ul.ie</t>
   </si>
   <si>
-    <t>went stratight to meeting space</t>
-  </si>
-  <si>
     <t>test21</t>
   </si>
   <si>
@@ -702,7 +699,19 @@
     <t>Test23</t>
   </si>
   <si>
-    <t>admins need to be able to assign user as administrator</t>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>to be created - Niall</t>
+  </si>
+  <si>
+    <t>Admin need to be able to assign user as administrator</t>
+  </si>
+  <si>
+    <t>Test 25</t>
+  </si>
+  <si>
+    <t>Admins need to be able view profile and make decisions on same</t>
   </si>
 </sst>
 </file>
@@ -1298,15 +1307,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
@@ -1721,8 +1730,11 @@
       <c r="D27" t="s">
         <v>201</v>
       </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -1730,18 +1742,36 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
         <v>203</v>
       </c>
-      <c r="C28" t="s">
-        <v>204</v>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1749,7 +1779,16 @@
         <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1757,7 +1796,24 @@
         <v>208</v>
       </c>
       <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
         <v>209</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -712,6 +712,18 @@
   </si>
   <si>
     <t>Admins need to be able view profile and make decisions on same</t>
+  </si>
+  <si>
+    <t>reset password</t>
+  </si>
+  <si>
+    <t>sql inection</t>
+  </si>
+  <si>
+    <t>formats the same</t>
+  </si>
+  <si>
+    <t>correct all the open tests</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,6 +1826,26 @@
       </c>
       <c r="C32" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -24,6 +24,9 @@
     <sheet name="DatesGrade Structure" sheetId="8" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$41</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="249">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -400,9 +403,6 @@
   </si>
   <si>
     <t xml:space="preserve">allowed me to logon and took me to Meeting Space </t>
-  </si>
-  <si>
-    <t>Welcome Lisa at the top of meeting space</t>
   </si>
   <si>
     <t>looks good so far</t>
@@ -717,20 +717,119 @@
     <t>reset password</t>
   </si>
   <si>
-    <t>sql inection</t>
-  </si>
-  <si>
     <t>formats the same</t>
   </si>
   <si>
     <t>correct all the open tests</t>
+  </si>
+  <si>
+    <t>Checked again on 25 July - Still error open</t>
+  </si>
+  <si>
+    <t>Meeting Spaces Showing  Matches me with Carol James even though she only wants female partners, Hit View to View Carol Profile. Liked profile and got error</t>
+  </si>
+  <si>
+    <t>Left Open Selected Like and got error</t>
+  </si>
+  <si>
+    <t>Lisa Flagged as interested in me</t>
+  </si>
+  <si>
+    <t>Wire up button functions for Like, etc. -&gt; Adrian</t>
+  </si>
+  <si>
+    <t>Code "Return to Match Profile" -&gt; Adrian</t>
+  </si>
+  <si>
+    <t>Match Profile - Fix issue with selecting user you are not already matched to</t>
+  </si>
+  <si>
+    <t>UpdateProfile - Improve Formatting and include Mary's Sliders -&gt; Mary</t>
+  </si>
+  <si>
+    <t>UpdateProfile2 - Improve Formatting</t>
+  </si>
+  <si>
+    <t>Password Reset - Write code -&gt; Adrian</t>
+  </si>
+  <si>
+    <t>Session control - Make sure users cant spoof site -&gt; Adrian</t>
+  </si>
+  <si>
+    <t>Chatline - Include bad word logic -&gt;Adrian</t>
+  </si>
+  <si>
+    <t>AdminScreen - Write moderation code -&gt; Nial</t>
+  </si>
+  <si>
+    <t>Test26</t>
+  </si>
+  <si>
+    <t>Test27</t>
+  </si>
+  <si>
+    <t>Test28</t>
+  </si>
+  <si>
+    <t>Test29</t>
+  </si>
+  <si>
+    <t>Test30</t>
+  </si>
+  <si>
+    <t>sql inection ???</t>
+  </si>
+  <si>
+    <t>Test 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sys Admin - View Profile - </t>
+  </si>
+  <si>
+    <t>Test 33</t>
+  </si>
+  <si>
+    <t>Test 34</t>
+  </si>
+  <si>
+    <t>Test 35</t>
+  </si>
+  <si>
+    <t>Test36</t>
+  </si>
+  <si>
+    <t>Test37</t>
+  </si>
+  <si>
+    <t>test38</t>
+  </si>
+  <si>
+    <t>test39</t>
+  </si>
+  <si>
+    <t>Test40</t>
+  </si>
+  <si>
+    <t>Logged on correctly.  Got No Matches Found- Should this be there are no issues found  ? Here is printed on left hand page why ?  When I select buttons it breaks  with error (Screen Shot sent to Niall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReDo test </t>
+  </si>
+  <si>
+    <t>test41</t>
+  </si>
+  <si>
+    <t>more Checks on Meeting Space</t>
+  </si>
+  <si>
+    <t>Sent email to team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,8 +864,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,8 +891,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -824,11 +936,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -845,6 +972,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,7 +1348,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>101</v>
@@ -1304,12 +1440,12 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1319,15 +1455,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
@@ -1345,510 +1481,613 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
-      </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
+        <v>181</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>147</v>
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>166</v>
+        <v>203</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:H41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2578,21 +2817,21 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
         <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -2600,13 +2839,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>193</v>
-      </c>
-      <c r="D5" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -25,7 +25,7 @@
     <sheet name="Sheet3" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="277">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -372,9 +372,6 @@
     <t xml:space="preserve">Menu not working </t>
   </si>
   <si>
-    <t xml:space="preserve">Forgot Password Option </t>
-  </si>
-  <si>
     <t>Allowed me to enter email but did not receive email</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>Option</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -402,9 +396,6 @@
     <t>Logon as Lisa Sharp Password welcomE01#</t>
   </si>
   <si>
-    <t xml:space="preserve">allowed me to logon and took me to Meeting Space </t>
-  </si>
-  <si>
     <t>looks good so far</t>
   </si>
   <si>
@@ -420,19 +411,7 @@
     <t>Test4</t>
   </si>
   <si>
-    <t>Logon option</t>
-  </si>
-  <si>
-    <t>logon as Lisa Sharp</t>
-  </si>
-  <si>
     <t>test 5</t>
-  </si>
-  <si>
-    <t>Logon Option/Meting Space. Edit profile</t>
-  </si>
-  <si>
-    <t>Logon Option/Meeting Space/ Edit profile</t>
   </si>
   <si>
     <t>First screen work , second screen works until I press save and it abends
@@ -445,9 +424,6 @@
 </t>
   </si>
   <si>
-    <t>Logon as Carol.James@gmail.com Password WelcomeE01</t>
-  </si>
-  <si>
     <t>Test 6</t>
   </si>
   <si>
@@ -457,22 +433,13 @@
     <t>Test 7</t>
   </si>
   <si>
-    <t>logon/Meeting Space</t>
-  </si>
-  <si>
     <t>chatting with Paul even though she wants Female ?</t>
   </si>
   <si>
-    <t>Bad Data in Data base</t>
-  </si>
-  <si>
     <t>Test 8</t>
   </si>
   <si>
     <t xml:space="preserve">You are chatting with  No Mathces Found </t>
-  </si>
-  <si>
-    <t>Need clarify on message</t>
   </si>
   <si>
     <t>Test 9</t>
@@ -514,9 +481,6 @@
   </si>
   <si>
     <t>Adrian to check</t>
-  </si>
-  <si>
-    <t>Logon</t>
   </si>
   <si>
     <t xml:space="preserve">Logon Details  remembering previous emails </t>
@@ -575,12 +539,6 @@
 select someone I like and view profile and like on view profile</t>
   </si>
   <si>
-    <t>logon Option</t>
-  </si>
-  <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
     <t>select correct partner I want to meet</t>
   </si>
   <si>
@@ -588,9 +546,6 @@
   </si>
   <si>
     <t>see if I get the correct sex partner</t>
-  </si>
-  <si>
-    <t>buttons Funciton</t>
   </si>
   <si>
     <t>TEst10</t>
@@ -627,9 +582,6 @@
 </t>
   </si>
   <si>
-    <t>logon/meeting Space</t>
-  </si>
-  <si>
     <t>Check Database</t>
   </si>
   <si>
@@ -702,9 +654,6 @@
     <t>Test24</t>
   </si>
   <si>
-    <t>to be created - Niall</t>
-  </si>
-  <si>
     <t>Admin need to be able to assign user as administrator</t>
   </si>
   <si>
@@ -723,9 +672,6 @@
     <t>correct all the open tests</t>
   </si>
   <si>
-    <t>Checked again on 25 July - Still error open</t>
-  </si>
-  <si>
     <t>Meeting Spaces Showing  Matches me with Carol James even though she only wants female partners, Hit View to View Carol Profile. Liked profile and got error</t>
   </si>
   <si>
@@ -823,6 +769,146 @@
   </si>
   <si>
     <t>Sent email to team</t>
+  </si>
+  <si>
+    <t>Test#</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Logon Details - Passwork Forgot</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Get onto Meeting Space from logon</t>
+  </si>
+  <si>
+    <t>Check If Edit Profile Works on Meeting Space</t>
+  </si>
+  <si>
+    <t>Check if save working on Edit Profile</t>
+  </si>
+  <si>
+    <t>Working now</t>
+  </si>
+  <si>
+    <t>Edit Porfile of another user</t>
+  </si>
+  <si>
+    <t>Edit Profile for Carol James</t>
+  </si>
+  <si>
+    <t>logon as Lisa Sharp- Logon Option/Meeting Space/ Edit profile</t>
+  </si>
+  <si>
+    <t>Logon as Carol.James@gmail.com Password WelcomeE01/Logon Option/Meeting Space/ Edit profile</t>
+  </si>
+  <si>
+    <t>logon as Lisa Sharp/meeting Space</t>
+  </si>
+  <si>
+    <t>Need to click on Photo</t>
+  </si>
+  <si>
+    <t>Logon as  Carol.James@gmail.com password welcomE01#/meeting space</t>
+  </si>
+  <si>
+    <t>Adrian/Mary</t>
+  </si>
+  <si>
+    <t>Niall</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Adrian ??</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Test42</t>
+  </si>
+  <si>
+    <t>Register new user</t>
+  </si>
+  <si>
+    <t>Register, Patballycannon@gmail.com , Password submit</t>
+  </si>
+  <si>
+    <t>Got Error Notice: Undefined index: email in C:\Users\User\Documents\GitHub\WebProject\Web\Register.php on line 24</t>
+  </si>
+  <si>
+    <t>Adrian to check on 28 April</t>
+  </si>
+  <si>
+    <t>tried again not working 27/7</t>
+  </si>
+  <si>
+    <t>Test 43</t>
+  </si>
+  <si>
+    <t>Logon on throughHIVE -</t>
+  </si>
+  <si>
+    <t>Liaa Sharp</t>
+  </si>
+  <si>
+    <t>Bringing me to meeting space  - no photos for matches and duplicate buttons Like Like 
+http://hive.csis.ul.ie/4065/group05/MeetingSpace.php</t>
+  </si>
+  <si>
+    <t>OPen</t>
+  </si>
+  <si>
+    <t>Test 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary </t>
+  </si>
+  <si>
+    <t>Seeking Age Profile</t>
+  </si>
+  <si>
+    <t>Lisa Sharp - Seking Age  Profile. Saved details.  When in again Age is not saved on slider
+http://hive.csis.ul.ie/4065/group05/UpdateProfile.php</t>
+  </si>
+  <si>
+    <t>Checked again on 28  July - Still showing Male partners</t>
+  </si>
+  <si>
+    <t>same as Test 9 - Open</t>
+  </si>
+  <si>
+    <t>Slide bar always defaults back .  Deirdre to put in Doc</t>
+  </si>
+  <si>
+    <t>Looks Good Left Open until I validate correctly</t>
+  </si>
+  <si>
+    <t>buttons Functon in Meeting space</t>
+  </si>
+  <si>
+    <t>test 44</t>
+  </si>
+  <si>
+    <t>Check Age Slider - New uSer</t>
+  </si>
+  <si>
+    <t>PatBallycannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logged in ok but allowed me to edit profile and put in from 40 to 20 for seeking age</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1403,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1434,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>101</v>
@@ -1440,12 +1526,12 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1455,404 +1541,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
       <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>112</v>
+      <c r="C3" t="s">
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="2:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
+      <c r="H7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
         <v>163</v>
       </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
-        <v>245</v>
+      <c r="H19" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
+        <v>248</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -1860,19 +1980,19 @@
     </row>
     <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -1880,16 +2000,16 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -1897,16 +2017,16 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -1914,16 +2034,16 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -1931,16 +2051,16 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -1948,146 +2068,334 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>215</v>
+      </c>
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>235</v>
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>220</v>
+      <c r="G33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>221</v>
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>222</v>
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>223</v>
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>224</v>
+        <v>206</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>225</v>
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>227</v>
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="H41" t="s">
-        <v>248</v>
+      <c r="H41" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H41"/>
+  <autoFilter ref="B1:H44">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2817,21 +3125,21 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -2839,13 +3147,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="281">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -909,6 +909,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Logged in ok but allowed me to edit profile and put in from 40 to 20 for seeking age</t>
+  </si>
+  <si>
+    <t>test45</t>
+  </si>
+  <si>
+    <t>Carol.James@gmail.com password welcomE01#/meeting space</t>
+  </si>
+  <si>
+    <t>does not remember email when I go back to site</t>
+  </si>
+  <si>
+    <t>Can App remember email when I go back from Meeting space</t>
   </si>
 </sst>
 </file>
@@ -1542,17 +1554,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H45"/>
+  <dimension ref="B1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
@@ -1565,7 +1577,7 @@
       <c r="C1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E1" t="s">
@@ -1578,14 +1590,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>235</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E2" t="s">
@@ -1705,14 +1717,14 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>154</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E8" t="s">
@@ -1751,14 +1763,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>156</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E10" t="s">
@@ -1774,14 +1786,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>272</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
@@ -1985,7 +1997,7 @@
       <c r="C21" t="s">
         <v>183</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E21" t="s">
@@ -1998,14 +2010,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E22" t="s">
@@ -2015,14 +2027,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>187</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E23" t="s">
@@ -2032,14 +2044,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>188</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E24" t="s">
@@ -2049,14 +2061,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>191</v>
       </c>
       <c r="C25" t="s">
         <v>192</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E25" t="s">
@@ -2282,14 +2294,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>228</v>
       </c>
       <c r="C41" t="s">
         <v>229</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E41" t="s">
@@ -2305,14 +2317,14 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>253</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>255</v>
       </c>
       <c r="E42" t="s">
@@ -2335,7 +2347,7 @@
       <c r="C43" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E43" t="s">
@@ -2375,7 +2387,7 @@
       <c r="C45" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E45" t="s">
@@ -2385,6 +2397,26 @@
         <v>276</v>
       </c>
       <c r="G45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -22,10 +22,12 @@
     <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
     <sheet name="Test Data Creation notes" sheetId="11" r:id="rId9"/>
     <sheet name="DatesGrade Structure" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId11"/>
+    <sheet name="Functionality" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="16" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="443">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -612,12 +614,6 @@
     <t>if you say goodbye on any of these they will not appear again</t>
   </si>
   <si>
-    <t>create Admin user</t>
-  </si>
-  <si>
-    <t>user profile has IS ADMINISTRATOR</t>
-  </si>
-  <si>
     <t>test 19</t>
   </si>
   <si>
@@ -859,18 +855,12 @@
   </si>
   <si>
     <t>Logon on throughHIVE -</t>
-  </si>
-  <si>
-    <t>Liaa Sharp</t>
   </si>
   <si>
     <t>Bringing me to meeting space  - no photos for matches and duplicate buttons Like Like 
 http://hive.csis.ul.ie/4065/group05/MeetingSpace.php</t>
   </si>
   <si>
-    <t>OPen</t>
-  </si>
-  <si>
     <t>Test 44</t>
   </si>
   <si>
@@ -887,9 +877,6 @@
     <t>Checked again on 28  July - Still showing Male partners</t>
   </si>
   <si>
-    <t>same as Test 9 - Open</t>
-  </si>
-  <si>
     <t>Slide bar always defaults back .  Deirdre to put in Doc</t>
   </si>
   <si>
@@ -921,13 +908,1143 @@
   </si>
   <si>
     <t>Can App remember email when I go back from Meeting space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page </t>
+  </si>
+  <si>
+    <t>Providing the user option to Register or Logon (if they have already registered)</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Allow User to Register to Site providing email and password</t>
+  </si>
+  <si>
+    <t>Logon</t>
+  </si>
+  <si>
+    <t>Allow User to logon to site (if they have already registered)</t>
+  </si>
+  <si>
+    <t>Logon  details are driven by  Email and Password</t>
+  </si>
+  <si>
+    <t>Test46</t>
+  </si>
+  <si>
+    <t>View Profile of a match</t>
+  </si>
+  <si>
+    <t>Logged on as Carol James.  Selected Jacob Newman - Minumun details appeared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deirdre to check Jacob Newman profile </t>
+  </si>
+  <si>
+    <t>DO this evening 28/7</t>
+  </si>
+  <si>
+    <t>meeting space</t>
+  </si>
+  <si>
+    <t>Chatting With</t>
+  </si>
+  <si>
+    <t>Possible Matches</t>
+  </si>
+  <si>
+    <t>People who Like me</t>
+  </si>
+  <si>
+    <t>People Who I Like</t>
+  </si>
+  <si>
+    <t>Provide me detials of People I have been chatting with</t>
+  </si>
+  <si>
+    <t>Provides me Photos of People who have Mathched with my Profile and provides me the opeiont</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide User to Logon or Register </t>
+  </si>
+  <si>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>Provide the user with home  page which  Displays the Option to Either Logon or Register</t>
+  </si>
+  <si>
+    <t>FN2</t>
+  </si>
+  <si>
+    <t>FN3</t>
+  </si>
+  <si>
+    <t>FN4</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>Lisa.sharp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When User is successful in Logging on they will be navigated to Meeting Space which is the HUB of the Dating Site and  will display 5  features
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are Chatting With Option Box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Provide details of chats you are having</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People Who Like Me - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Displaying details of people who like my profile and may be interested in me</t>
+    </r>
+  </si>
+  <si>
+    <t>Will display list of people who may be a match for me
+User needs to click on the photos that they want to do an action with</t>
+  </si>
+  <si>
+    <t>Meeting Space/Possible Matches</t>
+  </si>
+  <si>
+    <t>Meeting Space /Possible Matches Like Option</t>
+  </si>
+  <si>
+    <t>Meeting Space/Possible Matches View Option</t>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the View Button, this will navigate the user to the next screen to see details of the Person who is a possible Match for me(Described in FNXX)</t>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the Maybe  Button. This will display a question mark under the possible Match phot for future reference.
+Please note this person's photo needs to remain on possible matches box</t>
+  </si>
+  <si>
+    <t>Test47</t>
+  </si>
+  <si>
+    <t>Meeting Space- How it Works</t>
+  </si>
+  <si>
+    <t>What does this do - need more details</t>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the Goodbye  Button. This will  remove the person from possible Matches and will not be displayed again</t>
+  </si>
+  <si>
+    <t>test48</t>
+  </si>
+  <si>
+    <t>New User</t>
+  </si>
+  <si>
+    <t>Registered Deirdre1Shanahn.</t>
+  </si>
+  <si>
+    <t>DOB selection allowing to select dates 1900,  DOB called Surname,  Next  to profile 2 takes me back to logon screen</t>
+  </si>
+  <si>
+    <t>User can select Register from Logon Screen and  will be navigated to Screen to enter Email and Password</t>
+  </si>
+  <si>
+    <t>If User cannot remember password they have the option to select reset password from Logon Screen 
+which will navigate them to screen to enter email and new password will be sent to email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Possible Matches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Photos allowing me the option to Like/Maybe/Goodbye/Report (see FN5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People Who  I Like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Details of all the people I have liked and that I may find a match</t>
+    </r>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the Like Button. This will  remove the Photo of this person from Possible Matches to People I have liked  View</t>
+  </si>
+  <si>
+    <t>Meeting Space/Possible Matches Maybe Option</t>
+  </si>
+  <si>
+    <t>Meeting Space/Possible Matches Goodbye Option</t>
+  </si>
+  <si>
+    <t>Meeting Space/Possible Matches Report Option</t>
+  </si>
+  <si>
+    <t>Meeting Space/People Who Like Me</t>
+  </si>
+  <si>
+    <t>Meeting Space/People Who Like Me/like</t>
+  </si>
+  <si>
+    <t>If the User Notices Something offensive on  another user profile they have the option to Report this person the  Sysadmin team.  Selecting Report will flag the Profile of that person for the SYSADMIN team to check</t>
+  </si>
+  <si>
+    <t>This section of the Meeting Space will provide me with Details of possible matches who liked my profile</t>
+  </si>
+  <si>
+    <t>User can select photo of person who liked my  Profile . Select the Like Button. If both users have liked each other this will automatically  initiate the chat line screen</t>
+  </si>
+  <si>
+    <t>Chat Line</t>
+  </si>
+  <si>
+    <t>Meeting Space/Match Finder</t>
+  </si>
+  <si>
+    <t>Meeting Space/Edit Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting  Space/Edit Profile </t>
+  </si>
+  <si>
+    <t>test 49</t>
+  </si>
+  <si>
+    <t>Save button on profile page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not working </t>
+  </si>
+  <si>
+    <t>Test50</t>
+  </si>
+  <si>
+    <t>Cancel Button on Profile Page 1</t>
+  </si>
+  <si>
+    <t>Aborting</t>
+  </si>
+  <si>
+    <t>Send email to all</t>
+  </si>
+  <si>
+    <t>send eamail to all</t>
+  </si>
+  <si>
+    <t>test 51</t>
+  </si>
+  <si>
+    <t>Why isnt there cancel button on profile page 2</t>
+  </si>
+  <si>
+    <t>Meeting Space/Remove Account</t>
+  </si>
+  <si>
+    <t>test 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return button after removal </t>
+  </si>
+  <si>
+    <t>ABorting</t>
+  </si>
+  <si>
+    <t>I removed Deirdre1.Shanahn1 and all went well untik final screen to return and it aborts.  Thinking this should take you back to logon screen</t>
+  </si>
+  <si>
+    <t>Meeting Space/Logoff</t>
+  </si>
+  <si>
+    <t>FN4.100</t>
+  </si>
+  <si>
+    <t>FN4.101</t>
+  </si>
+  <si>
+    <t>FN4.102</t>
+  </si>
+  <si>
+    <t>FN4.103</t>
+  </si>
+  <si>
+    <t>FN4.104</t>
+  </si>
+  <si>
+    <t>FN4.105</t>
+  </si>
+  <si>
+    <t>FN4.106</t>
+  </si>
+  <si>
+    <t>FN4.107</t>
+  </si>
+  <si>
+    <t>FN4.108</t>
+  </si>
+  <si>
+    <t>FN4.109</t>
+  </si>
+  <si>
+    <t>FN4.110</t>
+  </si>
+  <si>
+    <t>FN4.111</t>
+  </si>
+  <si>
+    <t>FN4.112</t>
+  </si>
+  <si>
+    <t>FN4.113</t>
+  </si>
+  <si>
+    <t>FN5.0</t>
+  </si>
+  <si>
+    <t>Administrator Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This option allows the Admin to manage the site.  </t>
+  </si>
+  <si>
+    <t>FN5.101</t>
+  </si>
+  <si>
+    <t>Administrator Options -View</t>
+  </si>
+  <si>
+    <t>Test 53</t>
+  </si>
+  <si>
+    <t>Admin Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Sharp 4 times on the site - is this correct. Does thi mean that 4 people complained about her </t>
+  </si>
+  <si>
+    <t>Test 54</t>
+  </si>
+  <si>
+    <t>What is the button beside the photo for.  Looks like you can select the photo or the button</t>
+  </si>
+  <si>
+    <t>test55</t>
+  </si>
+  <si>
+    <t>Admin Screen  - View Option</t>
+  </si>
+  <si>
+    <t>Click Photo to view why this person was reported.</t>
+  </si>
+  <si>
+    <t>FN5.102</t>
+  </si>
+  <si>
+    <t>Test 66</t>
+  </si>
+  <si>
+    <t>Logon Screen</t>
+  </si>
+  <si>
+    <t>Always Defaults to Lisa - no matter what ID you out in</t>
+  </si>
+  <si>
+    <t>Administrator  Options -Suspend 1 Month</t>
+  </si>
+  <si>
+    <t>takes to view profile . I don’t know if we have time but Admin should not display the options to like /etc</t>
+  </si>
+  <si>
+    <t>Removes the option for the person to join out app ever again</t>
+  </si>
+  <si>
+    <t>FN5.103</t>
+  </si>
+  <si>
+    <t>FN5.104</t>
+  </si>
+  <si>
+    <t>Administrator Options - BAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator Options - Logout Option </t>
+  </si>
+  <si>
+    <t>Function #</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Same functionality as FNS3.104</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eading Navigate Bar at the top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will display Name of the User and Allow them the option to Edit Profile,
+Edit Profile, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove their Profile from the Site, Logout of the Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Match Finder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - this is a spontaneous function which allows the user look for matches under different criteria than stored in their Profile.   Facilitating the user if they are in a different location or indeed if they are looking for a different profile  at this moment.  This information is not stored in the Database </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows user to create a new profile or edit exiting profile. User is asked to enter  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nearest City/Town</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (allowing drop down option Male, Female, Transgender M-F or F-M ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preferred Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (same validation per Gender)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Min Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (using slide bar ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Max Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(using slide bar), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance User will travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Using Distance bar)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Relationship type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Love,Casual,Friendship,Relatioship - Radio Buttons).  Validation limited due to drop down screens and radio buttons.  Mix /Max Age is validated.  Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take user to Second Profile details screen (Personal Details Page2  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FN4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which brings user back to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting Space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Second Profile Page(Personal Details Page 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Allows the user to load their  Photograph, update some additional information in BIO box and select through radio buttons  Hobbies which are - Music, Sport, Travelling, Sailing, Food, Work,Family,Cooking,Gym  .  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAVE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will navigate the user to screen which clearly calls out the implications of removing account - everything will be removed .  User is asked to Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if they want to continue to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (abort remove). If user selects Remove then ????? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adrian to advise what should happen as this aborts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Navigates user to Log Out Screen providing the user with option </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logoff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel.
+Logoff  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will bring user to screen to confirm they really want to logout which bring user back to logon screen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will bring user to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Meeting Space</t>
+    </r>
+  </si>
+  <si>
+    <t>This is a spontaneous option for the user to decide if they want to change some of their profile information to get meet a partner.  The user is presented with screen Gender Preference, Preferred location, Relationship type, Interests, Seeking Age.  All these  use the drop down screen which limits the user to the Mandatory Choices.</t>
+  </si>
+  <si>
+    <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa</t>
+  </si>
+  <si>
+    <t>Future Partner  Website Project Status</t>
+  </si>
+  <si>
+    <t>Dating Pages</t>
+  </si>
+  <si>
+    <t>Page Link</t>
+  </si>
+  <si>
+    <t>Basic Screen Layout Complete</t>
+  </si>
+  <si>
+    <t>Layout fully compelte</t>
+  </si>
+  <si>
+    <t>accessing Database</t>
+  </si>
+  <si>
+    <t>Updating Database</t>
+  </si>
+  <si>
+    <t>All buttons functioning</t>
+  </si>
+  <si>
+    <t>Validation Complete</t>
+  </si>
+  <si>
+    <t>Style Complete</t>
+  </si>
+  <si>
+    <t>Index.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/index.php</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Logon.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/Logon.php</t>
+  </si>
+  <si>
+    <t>Register.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/Register.php</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>meetingspace.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/MeetingSpace.php</t>
+  </si>
+  <si>
+    <t>updateprofile.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/UpdateProfile.php</t>
+  </si>
+  <si>
+    <t>viewmatchprofile.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/ViewMatchProfile.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chatline.php                </t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/ChatLine.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matchfind.php               </t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/MatchFind.php</t>
+  </si>
+  <si>
+    <t>removeaccount.php</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/RemoveAccount.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passwordreset .php  </t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/PasswordReset.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminscreen.php             </t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>http://hive.csis.ul.ie/4065/group05/AdminScreen.php</t>
+  </si>
+  <si>
+    <t>Adrian still working to perfection</t>
+  </si>
+  <si>
+    <t>Deirdre to recheck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,8 +2086,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,12 +2159,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1049,11 +2229,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1071,17 +2518,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1525,28 +3106,854 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C3"/>
+  <dimension ref="C3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>179</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="45"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="45"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="46"/>
+      <c r="D7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="45"/>
+      <c r="D11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="46"/>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C9:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="110.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="51"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="51"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B7:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="29" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1554,34 +3961,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H46"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" t="s">
-        <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>112</v>
@@ -1590,24 +3997,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1615,13 +4025,13 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>115</v>
@@ -1636,13 +4046,13 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>118</v>
@@ -1657,13 +4067,13 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>124</v>
@@ -1672,7 +4082,7 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -1680,13 +4090,13 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
         <v>241</v>
       </c>
-      <c r="D6" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>121</v>
@@ -1701,13 +4111,13 @@
         <v>123</v>
       </c>
       <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
         <v>242</v>
       </c>
-      <c r="D7" t="s">
-        <v>244</v>
-      </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>122</v>
@@ -1717,7 +4127,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>125</v>
       </c>
@@ -1725,19 +4135,19 @@
         <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>269</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1751,7 +4161,7 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>128</v>
@@ -1760,10 +4170,10 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>129</v>
       </c>
@@ -1771,42 +4181,42 @@
         <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1820,7 +4230,7 @@
         <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>135</v>
@@ -1841,7 +4251,7 @@
         <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>138</v>
@@ -1850,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1864,7 +4274,7 @@
         <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>141</v>
@@ -1887,7 +4297,7 @@
         <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>164</v>
@@ -1908,7 +4318,7 @@
         <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>150</v>
@@ -1929,7 +4339,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>152</v>
@@ -1950,7 +4360,7 @@
         <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>174</v>
@@ -1962,7 +4372,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>173</v>
       </c>
@@ -1970,21 +4380,21 @@
         <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -1992,19 +4402,19 @@
     </row>
     <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2012,16 +4422,16 @@
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -2029,16 +4439,16 @@
     </row>
     <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -2046,16 +4456,16 @@
     </row>
     <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -2063,16 +4473,16 @@
     </row>
     <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -2080,41 +4490,41 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" t="s">
-        <v>195</v>
-      </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -2122,145 +4532,145 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>212</v>
       </c>
-      <c r="C29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>217</v>
+      <c r="C31" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E32" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="E34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>207</v>
+        <v>221</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="E38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -2268,13 +4678,13 @@
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>208</v>
+        <v>222</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2282,154 +4692,336 @@
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E42" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="3" t="s">
+    </row>
+    <row r="43" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="E45" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="G46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H44">
+  <autoFilter ref="B1:H57">
     <filterColumn colId="5">
       <filters>
         <filter val="Open"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D43" r:id="rId1"/>
+    <hyperlink ref="D46" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2980,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,8 @@
     <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
     <sheet name="Test Data Creation notes" sheetId="11" r:id="rId9"/>
     <sheet name="DatesGrade Structure" sheetId="8" r:id="rId10"/>
-    <sheet name="Functionality" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="16" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="17" r:id="rId13"/>
+    <sheet name="Functionality" sheetId="16" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="428">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -910,27 +909,9 @@
     <t>Can App remember email when I go back from Meeting space</t>
   </si>
   <si>
-    <t xml:space="preserve">Home Page </t>
-  </si>
-  <si>
-    <t>Providing the user option to Register or Logon (if they have already registered)</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
-    <t>Allow User to Register to Site providing email and password</t>
-  </si>
-  <si>
-    <t>Logon</t>
-  </si>
-  <si>
-    <t>Allow User to logon to site (if they have already registered)</t>
-  </si>
-  <si>
-    <t>Logon  details are driven by  Email and Password</t>
-  </si>
-  <si>
     <t>Test46</t>
   </si>
   <si>
@@ -944,33 +925,6 @@
   </si>
   <si>
     <t>DO this evening 28/7</t>
-  </si>
-  <si>
-    <t>meeting space</t>
-  </si>
-  <si>
-    <t>Chatting With</t>
-  </si>
-  <si>
-    <t>Possible Matches</t>
-  </si>
-  <si>
-    <t>People who Like me</t>
-  </si>
-  <si>
-    <t>People Who I Like</t>
-  </si>
-  <si>
-    <t>Provide me detials of People I have been chatting with</t>
-  </si>
-  <si>
-    <t>Provides me Photos of People who have Mathched with my Profile and provides me the opeiont</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide User to Logon or Register </t>
   </si>
   <si>
     <t>FN1</t>
@@ -2176,7 +2130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2225,86 +2179,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2500,7 +2374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2524,19 +2398,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,10 +2413,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2557,7 +2425,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,95 +2434,82 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3106,441 +2961,333 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="45"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="45"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="46"/>
-      <c r="D7" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="45"/>
-      <c r="D11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="46"/>
-      <c r="D12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C9:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="110.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="110.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>298</v>
+      <c r="B4" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>322</v>
+      <c r="B5" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>323</v>
+      <c r="B6" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>305</v>
+      <c r="D7" s="31" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="34" t="s">
-        <v>396</v>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="34" t="s">
-        <v>306</v>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="36" t="s">
-        <v>324</v>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="32" t="s">
+        <v>309</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="36" t="s">
-        <v>307</v>
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="32" t="s">
+        <v>292</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="36" t="s">
-        <v>325</v>
+      <c r="B12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="32" t="s">
+        <v>310</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="D27" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="C28" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="D28" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" s="34" t="s">
+      <c r="C29" s="27" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="D29" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>395</v>
+      <c r="B31" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -3565,385 +3312,385 @@
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="29" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="29" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="25" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="J5" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="J3" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="B13" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>417</v>
+      <c r="G13" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +3710,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -4017,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4147,7 +3894,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4717,7 +4464,7 @@
       <c r="E41" t="s">
         <v>234</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="47" t="s">
         <v>196</v>
       </c>
       <c r="G41" t="s">
@@ -4757,8 +4504,8 @@
       <c r="C43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>304</v>
+      <c r="D43" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="E43" t="s">
         <v>249</v>
@@ -4817,7 +4564,7 @@
       <c r="C46" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="9" t="s">
         <v>273</v>
       </c>
       <c r="E46" t="s">
@@ -4832,36 +4579,36 @@
     </row>
     <row r="47" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E47" t="s">
         <v>234</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -4869,19 +4616,19 @@
     </row>
     <row r="49" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E49" t="s">
         <v>246</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -4889,64 +4636,64 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -4954,13 +4701,13 @@
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -4968,13 +4715,13 @@
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -4982,13 +4729,13 @@
     </row>
     <row r="56" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4996,13 +4743,13 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Profile Page 2" sheetId="5" r:id="rId6"/>
     <sheet name="Reports" sheetId="6" r:id="rId7"/>
     <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
-    <sheet name="Test Data Creation notes" sheetId="11" r:id="rId9"/>
-    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId10"/>
-    <sheet name="Functionality" sheetId="16" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="17" r:id="rId12"/>
+    <sheet name="DatesGrade Structure" sheetId="8" r:id="rId9"/>
+    <sheet name="Functionality" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId11"/>
+    <sheet name="Clarification" sheetId="18" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="433">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -493,18 +493,6 @@
     <t>Meeting Space</t>
   </si>
   <si>
-    <t>IF user selects someone - nothing happens unless the person they liked has liked them.</t>
-  </si>
-  <si>
-    <t>Make sure and create test data with Users who have already liked the person</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Action on test Data to do test</t>
-  </si>
-  <si>
     <t>test 14</t>
   </si>
   <si>
@@ -604,15 +592,6 @@
     <t>Broke with error</t>
   </si>
   <si>
-    <t>Interested in Me</t>
-  </si>
-  <si>
-    <t>Please note following flow.  System Match, Intereseted in me, Chat</t>
-  </si>
-  <si>
-    <t>if you say goodbye on any of these they will not appear again</t>
-  </si>
-  <si>
     <t>test 19</t>
   </si>
   <si>
@@ -1992,6 +1971,48 @@
   </si>
   <si>
     <t>Deirdre to recheck</t>
+  </si>
+  <si>
+    <t>FN5.105</t>
+  </si>
+  <si>
+    <t>Black list of words</t>
+  </si>
+  <si>
+    <t>Black  List words</t>
+  </si>
+  <si>
+    <t>How can SYSADMIN  add additional words to Data Base</t>
+  </si>
+  <si>
+    <t>How can sysadmin check what is on the profile with Black list words</t>
+  </si>
+  <si>
+    <t>Sys Admin Login</t>
+  </si>
+  <si>
+    <t>When user logs on they are taken to list of people  with issues
+What does the wee circle at the side of the photo mean ?
+IF you select photo the wee circle also is  flagged
+Why would the same person be there a number of times ?</t>
+  </si>
+  <si>
+    <t>How can I validate if someone is suspended -</t>
+  </si>
+  <si>
+    <t>How can you unsuspend a account ?</t>
+  </si>
+  <si>
+    <t>BAR ?  I  selected uset and flagged as BAR but nothing happened .
+Is user supposed to disappear from screen ?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 ways  flag Inappropriate behaviours
+1. User can report someone for inappropriate behaviours 
+2. Which screen has code in the background  to check inappropriate code</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2485,6 +2506,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2512,9 +2536,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2861,110 +2887,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,24 +2903,24 @@
   <sheetData>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -3002,80 +2928,80 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="30" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="32" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="32" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="32" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -3083,211 +3009,219 @@
     </row>
     <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>380</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -3318,379 +3252,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="J5" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="I6" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="F7" s="17" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>407</v>
-      </c>
       <c r="F13" s="23" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3705,6 +3639,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
@@ -3712,7 +3721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,16 +3735,16 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>112</v>
@@ -3749,13 +3758,13 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>107</v>
@@ -3764,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3772,13 +3781,13 @@
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>115</v>
@@ -3793,13 +3802,13 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>118</v>
@@ -3814,13 +3823,13 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>124</v>
@@ -3829,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -3837,13 +3846,13 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>121</v>
@@ -3858,13 +3867,13 @@
         <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>122</v>
@@ -3879,13 +3888,13 @@
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>126</v>
@@ -3894,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3902,13 +3911,13 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>128</v>
@@ -3917,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -3925,13 +3934,13 @@
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>130</v>
@@ -3940,21 +3949,21 @@
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>132</v>
@@ -3963,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3971,13 +3980,13 @@
         <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
         <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>135</v>
@@ -3989,16 +3998,16 @@
     </row>
     <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
         <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>138</v>
@@ -4007,21 +4016,21 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
         <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>141</v>
@@ -4035,19 +4044,19 @@
     </row>
     <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -4056,19 +4065,19 @@
     </row>
     <row r="16" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -4077,19 +4086,19 @@
     </row>
     <row r="17" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -4098,50 +4107,50 @@
     </row>
     <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -4149,19 +4158,19 @@
     </row>
     <row r="21" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -4169,16 +4178,16 @@
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -4186,16 +4195,16 @@
     </row>
     <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -4203,16 +4212,16 @@
     </row>
     <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -4220,16 +4229,16 @@
     </row>
     <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -4237,13 +4246,13 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -4251,13 +4260,13 @@
     </row>
     <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -4265,13 +4274,13 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -4279,13 +4288,13 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -4293,13 +4302,13 @@
     </row>
     <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -4307,13 +4316,13 @@
     </row>
     <row r="31" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -4321,13 +4330,13 @@
     </row>
     <row r="32" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -4335,13 +4344,13 @@
     </row>
     <row r="33" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -4349,13 +4358,13 @@
     </row>
     <row r="34" spans="2:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -4363,16 +4372,16 @@
     </row>
     <row r="35" spans="2:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -4380,13 +4389,13 @@
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G36" t="s">
         <v>21</v>
@@ -4394,30 +4403,30 @@
     </row>
     <row r="37" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -4425,13 +4434,13 @@
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -4439,13 +4448,13 @@
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>21</v>
@@ -4453,65 +4462,65 @@
     </row>
     <row r="41" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>196</v>
+        <v>227</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -4519,39 +4528,39 @@
     </row>
     <row r="44" spans="2:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
@@ -4559,19 +4568,19 @@
     </row>
     <row r="46" spans="2:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G46" t="s">
         <v>6</v>
@@ -4579,36 +4588,36 @@
     </row>
     <row r="47" spans="2:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -4616,19 +4625,19 @@
     </row>
     <row r="49" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -4636,64 +4645,64 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -4701,13 +4710,13 @@
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -4715,27 +4724,27 @@
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4743,13 +4752,13 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
@@ -5481,53 +5490,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Testing Requirements" sheetId="7" r:id="rId8"/>
     <sheet name="DatesGrade Structure" sheetId="8" r:id="rId9"/>
     <sheet name="Functionality" sheetId="16" r:id="rId10"/>
-    <sheet name="Sheet6" sheetId="17" r:id="rId11"/>
-    <sheet name="Clarification" sheetId="18" r:id="rId12"/>
+    <sheet name="Clarification" sheetId="18" r:id="rId11"/>
+    <sheet name="logon&amp;passwords" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="405">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -1853,120 +1853,6 @@
     <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa</t>
   </si>
   <si>
-    <t>Future Partner  Website Project Status</t>
-  </si>
-  <si>
-    <t>Dating Pages</t>
-  </si>
-  <si>
-    <t>Page Link</t>
-  </si>
-  <si>
-    <t>Basic Screen Layout Complete</t>
-  </si>
-  <si>
-    <t>Layout fully compelte</t>
-  </si>
-  <si>
-    <t>accessing Database</t>
-  </si>
-  <si>
-    <t>Updating Database</t>
-  </si>
-  <si>
-    <t>All buttons functioning</t>
-  </si>
-  <si>
-    <t>Validation Complete</t>
-  </si>
-  <si>
-    <t>Style Complete</t>
-  </si>
-  <si>
-    <t>Index.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/index.php</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Logon.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/Logon.php</t>
-  </si>
-  <si>
-    <t>Register.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/Register.php</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>meetingspace.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/MeetingSpace.php</t>
-  </si>
-  <si>
-    <t>updateprofile.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/UpdateProfile.php</t>
-  </si>
-  <si>
-    <t>viewmatchprofile.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/ViewMatchProfile.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chatline.php                </t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/ChatLine.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matchfind.php               </t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/MatchFind.php</t>
-  </si>
-  <si>
-    <t>removeaccount.php</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/RemoveAccount.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passwordreset .php  </t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/PasswordReset.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adminscreen.php             </t>
-  </si>
-  <si>
-    <t>Np</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>http://hive.csis.ul.ie/4065/group05/AdminScreen.php</t>
-  </si>
-  <si>
     <t>Adrian still working to perfection</t>
   </si>
   <si>
@@ -2013,13 +1899,43 @@
     <t xml:space="preserve"> 3 ways  flag Inappropriate behaviours
 1. User can report someone for inappropriate behaviours 
 2. Which screen has code in the background  to check inappropriate code</t>
+  </si>
+  <si>
+    <t>16230256@Studentmail.ul.ie</t>
+  </si>
+  <si>
+    <t>SysAdmin</t>
+  </si>
+  <si>
+    <t>welcomE01#</t>
+  </si>
+  <si>
+    <t>16230124@studentmail.ul.ie</t>
+  </si>
+  <si>
+    <t>mary's Logon wrong on Systadmin  Database upload -</t>
+  </si>
+  <si>
+    <t>0510661@stedentmail.ul.ie</t>
+  </si>
+  <si>
+    <t>0199124@studentmail.ul.ie</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>USER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2092,20 +2008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2151,7 +2053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2320,43 +2222,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2395,7 +2260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2425,52 +2290,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,6 +2335,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2518,29 +2349,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2902,24 +2719,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E4" t="s">
@@ -2927,50 +2744,50 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="15" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="17" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="18" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="17" t="s">
         <v>374</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="17" t="s">
         <v>284</v>
       </c>
       <c r="E9" t="s">
@@ -2978,9 +2795,9 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="19" t="s">
         <v>302</v>
       </c>
       <c r="E10" t="s">
@@ -2988,9 +2805,9 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="19" t="s">
         <v>285</v>
       </c>
       <c r="E11" t="s">
@@ -2998,9 +2815,9 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="19" t="s">
         <v>303</v>
       </c>
       <c r="E12" t="s">
@@ -3008,220 +2825,220 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="20" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="20" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="20" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="20" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="20" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="17" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="17" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="17" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="17" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="17" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="17" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="17" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="17" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3236,414 +3053,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="C3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="25" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D9"/>
     </sheetView>
   </sheetViews>
@@ -3654,63 +3066,142 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>425</v>
+      <c r="C3" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>432</v>
+      <c r="C4" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>424</v>
+      <c r="C5" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>427</v>
+      <c r="C6" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>428</v>
+      <c r="C7" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>429</v>
+      <c r="C8" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>430</v>
+      <c r="C9" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3773,7 +3264,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4473,7 +3964,7 @@
       <c r="E41" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="25" t="s">
         <v>189</v>
       </c>
       <c r="G41" t="s">
@@ -5326,10 +4817,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D22"/>
+  <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,6 +4971,11 @@
       </c>
       <c r="C22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\WebProject\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="407">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -934,44 +934,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You are Chatting With Option Box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Provide details of chats you are having</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People Who Like Me - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Displaying details of people who like my profile and may be interested in me</t>
-    </r>
-  </si>
-  <si>
     <t>Will display list of people who may be a match for me
 User needs to click on the photos that they want to do an action with</t>
   </si>
@@ -1023,36 +985,6 @@
 which will navigate them to screen to enter email and new password will be sent to email</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Possible Matches </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Photos allowing me the option to Like/Maybe/Goodbye/Report (see FN5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People Who  I Like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Details of all the people I have liked and that I may find a match</t>
-    </r>
-  </si>
-  <si>
     <t>User can select photo of possible Match and Select the Like Button. This will  remove the Photo of this person from Possible Matches to People I have liked  View</t>
   </si>
   <si>
@@ -1077,15 +1009,9 @@
     <t>This section of the Meeting Space will provide me with Details of possible matches who liked my profile</t>
   </si>
   <si>
-    <t>User can select photo of person who liked my  Profile . Select the Like Button. If both users have liked each other this will automatically  initiate the chat line screen</t>
-  </si>
-  <si>
     <t>Chat Line</t>
   </si>
   <si>
-    <t>Meeting Space/Match Finder</t>
-  </si>
-  <si>
     <t>Meeting Space/Edit Profile</t>
   </si>
   <si>
@@ -1188,9 +1114,6 @@
     <t>Administrator Options</t>
   </si>
   <si>
-    <t xml:space="preserve">This option allows the Admin to manage the site.  </t>
-  </si>
-  <si>
     <t>FN5.101</t>
   </si>
   <si>
@@ -1263,603 +1186,13 @@
     <t>Same functionality as FNS3.104</t>
   </si>
   <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eading Navigate Bar at the top </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">will display Name of the User and Allow them the option to Edit Profile,
-Edit Profile, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove their Profile from the Site, Logout of the Site</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Match Finder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - this is a spontaneous function which allows the user look for matches under different criteria than stored in their Profile.   Facilitating the user if they are in a different location or indeed if they are looking for a different profile  at this moment.  This information is not stored in the Database </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> allows user to create a new profile or edit exiting profile. User is asked to enter  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Surname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DOB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nearest City/Town</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (allowing drop down option Male, Female, Transgender M-F or F-M ), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preferred Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  (same validation per Gender)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seeking Min Age Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (using slide bar ), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seeking Max Age Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(using slide bar), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Distance User will travel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Using Distance bar)   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Relationship type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Love,Casual,Friendship,Relatioship - Radio Buttons).  Validation limited due to drop down screens and radio buttons.  Mix /Max Age is validated.  Press </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to take user to Second Profile details screen (Personal Details Page2  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FN4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> which brings user back to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meeting Space</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit Second Profile Page(Personal Details Page 2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Allows the user to load their  Photograph, update some additional information in BIO box and select through radio buttons  Hobbies which are - Music, Sport, Travelling, Sailing, Food, Work,Family,Cooking,Gym  .  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove Account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will navigate the user to screen which clearly calls out the implications of removing account - everything will be removed .  User is asked to Press </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove Account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if they want to continue to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (abort remove). If user selects Remove then ????? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adrian to advise what should happen as this aborts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Logout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Navigates user to Log Out Screen providing the user with option </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Logoff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cancel.
-Logoff  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will bring user to screen to confirm they really want to logout which bring user back to logon screen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.  Cancel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will bring user to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Meeting Space</t>
-    </r>
-  </si>
-  <si>
     <t>This is a spontaneous option for the user to decide if they want to change some of their profile information to get meet a partner.  The user is presented with screen Gender Preference, Preferred location, Relationship type, Interests, Seeking Age.  All these  use the drop down screen which limits the user to the Mandatory Choices.</t>
   </si>
   <si>
-    <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa</t>
-  </si>
-  <si>
     <t>Adrian still working to perfection</t>
   </si>
   <si>
     <t>Deirdre to recheck</t>
-  </si>
-  <si>
-    <t>FN5.105</t>
   </si>
   <si>
     <t>Black list of words</t>
@@ -1929,6 +1262,729 @@
   </si>
   <si>
     <t>USER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You are Chatting With Option Box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Provide details of chats you are having</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People Who Like Me - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Displaying details of people who like my profile and may be interested in me</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People Who  I Like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Details of all the people I have liked and that I may find a match</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows user to create a new profile or edit exiting profile. User is asked to enter  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nearest City/Town</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (allowing drop down option Male, Female, Transgender M-F or F-M ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preferred Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (same validation per Gender)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Min Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (using slide bar ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Max Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(using slide bar), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance User will travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Using Distance bar)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Relationship type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Love,Casual,Friendship,Relatioship - Radio Buttons).  Validation limited due to drop down screens and radio buttons.  Mix /Max Age is validated.  Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take user to Second Profile details screen (Personal Details Page2  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FN4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which brings user back to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting Space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will navigate the user to screen which clearly calls out the implications of removing account - everything will be removed .  User is asked to Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if they want to continue to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (abort remove). If user selects Remove then  account is  removed and user is brought back to logon screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Navigates user to Log Out Screen providing the user with option </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logoff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel.
+Logoff  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will bring user to screen to confirm they really want to logout which bring user back to logon screen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will bring user to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Meeting Space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Heading Navigate Bar at the top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will display Name of the User and Allow them the option :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove their Profile from the Site, Logout of the Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Match Finder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - this is a spontaneous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function which allows the user look for matches under different criteria than stored in their Profile.   Facilitating the user if they are in a different location or indeed if they are looking for a different profile  at that moment.  This information is not stored in the Database </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Possible Matches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Photos allowing the user the  option to Like/Maybe/Goodbye/Report (see FN5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Second Profile Page(Personal Details Page 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Allows the user to load their  Photograph, update some additional information in BIO box and select through radio buttons  Hobbies which are - Music, Sport, Travelling, Sailing, Food, Work,Family,Cooking,Gym  .  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SAVE
+Please note Phot is not saved on profile until date is SAVED. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User can validate this by  viewing Profile after update</t>
+    </r>
+  </si>
+  <si>
+    <t>Meeting Space/Match Finder
+(SEARCH FUNCTIONALITY)</t>
+  </si>
+  <si>
+    <t>User can select photo of person who liked their Profile . Select the Like Button. If both users have liked each other this will automatically  initiate the option to chat screen</t>
+  </si>
+  <si>
+    <t>This option allows the Admin to manage the site.  
+User has to log on with Specific Logon and Password (Details outlined in Useful Password Section )
+Once user successful logs in they will be pesented with Admin screen and a phot of users who have been reported  by other users or who haeve been automatically reporting due to the use of bad language</t>
+  </si>
+  <si>
+    <t>Blacklist words can only be maintained using SQL statements by the DBA</t>
+  </si>
+  <si>
+    <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa.
+Chat begins - the system will automatically check  conversation and dentifies the use of black listed words and reports this to the Systadmin  if the word is used more than 5 times.
+It also takes the liberty of  blocking communication being seen by the other user</t>
+  </si>
+  <si>
+    <t>Click Photo to view why this person was reported.
+If there is evidence of an offence the Sysadmin can suspend the user for 1 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FN5.105</t>
   </si>
 </sst>
 </file>
@@ -1979,21 +2035,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2010,6 +2051,21 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2258,9 +2314,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2284,52 +2340,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,23 +2360,68 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2699,6 +2764,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2706,339 +2772,342 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="110.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="111.85546875" style="25" customWidth="1"/>
     <col min="5" max="5" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="D6" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="17" t="s">
-        <v>374</v>
+    <row r="8" spans="2:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="17" t="s">
-        <v>284</v>
+    <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="19" t="s">
-        <v>302</v>
+    <row r="10" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="21" t="s">
+        <v>398</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="19" t="s">
-        <v>285</v>
+    <row r="11" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="19" t="s">
-        <v>303</v>
+    <row r="12" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="37"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="21" t="s">
+        <v>393</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:5" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="93" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="C19" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="C20" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="B21" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="C21" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="C22" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B23" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="C23" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="C24" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="C25" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
+      <c r="B26" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="C26" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="D27" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B28" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="B29" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D30" s="17" t="s">
+    <row r="31" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C31" s="22" t="s">
+    <row r="32" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>384</v>
+      <c r="D32" s="23" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3066,63 +3135,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>387</v>
+      <c r="C3" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>394</v>
+      <c r="C4" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>386</v>
+      <c r="C5" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>389</v>
+      <c r="C6" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>390</v>
+      <c r="C7" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>391</v>
+      <c r="C8" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>392</v>
+      <c r="C9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3130,7 +3200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E7"/>
     </sheetView>
   </sheetViews>
@@ -3142,58 +3212,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>403</v>
+      <c r="C3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>397</v>
+      <c r="C4" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>397</v>
+      <c r="C5" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>397</v>
+      <c r="C6" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>397</v>
+      <c r="C7" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3334,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3394,7 +3464,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3964,7 +4034,7 @@
       <c r="E41" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="13" t="s">
         <v>189</v>
       </c>
       <c r="G41" t="s">
@@ -4102,13 +4172,13 @@
     </row>
     <row r="48" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -4116,19 +4186,19 @@
     </row>
     <row r="49" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E49" t="s">
         <v>239</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -4136,64 +4206,64 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -4201,13 +4271,13 @@
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
         <v>21</v>
@@ -4215,13 +4285,13 @@
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -4229,13 +4299,13 @@
     </row>
     <row r="56" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4243,13 +4313,13 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
@@ -4329,6 +4399,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4413,6 +4484,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4670,6 +4742,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4684,6 +4757,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4975,7 +5049,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="logon&amp;passwords" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$63</definedName>
   </definedNames>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="423">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -1024,18 +1024,12 @@
     <t>Save button on profile page 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Not working </t>
-  </si>
-  <si>
     <t>Test50</t>
   </si>
   <si>
     <t>Cancel Button on Profile Page 1</t>
   </si>
   <si>
-    <t>Aborting</t>
-  </si>
-  <si>
     <t>Send email to all</t>
   </si>
   <si>
@@ -1057,9 +1051,6 @@
     <t xml:space="preserve">return button after removal </t>
   </si>
   <si>
-    <t>ABorting</t>
-  </si>
-  <si>
     <t>I removed Deirdre1.Shanahn1 and all went well untik final screen to return and it aborts.  Thinking this should take you back to logon screen</t>
   </si>
   <si>
@@ -1159,9 +1150,6 @@
     <t>Administrator  Options -Suspend 1 Month</t>
   </si>
   <si>
-    <t>takes to view profile . I don’t know if we have time but Admin should not display the options to like /etc</t>
-  </si>
-  <si>
     <t>Removes the option for the person to join out app ever again</t>
   </si>
   <si>
@@ -1187,9 +1175,6 @@
   </si>
   <si>
     <t>This is a spontaneous option for the user to decide if they want to change some of their profile information to get meet a partner.  The user is presented with screen Gender Preference, Preferred location, Relationship type, Interests, Seeking Age.  All these  use the drop down screen which limits the user to the Mandatory Choices.</t>
-  </si>
-  <si>
-    <t>Adrian still working to perfection</t>
   </si>
   <si>
     <t>Deirdre to recheck</t>
@@ -1985,6 +1970,73 @@
   </si>
   <si>
     <t xml:space="preserve">   FN5.105</t>
+  </si>
+  <si>
+    <t>Test67</t>
+  </si>
+  <si>
+    <t>new user</t>
+  </si>
+  <si>
+    <t>test68</t>
+  </si>
+  <si>
+    <t>Match Finder</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>test69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting space  </t>
+  </si>
+  <si>
+    <t>selected someone in you are chatting with box. Press view, then in View press like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aborted with errr  </t>
+  </si>
+  <si>
+    <t>Allows me to select NO interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 70 </t>
+  </si>
+  <si>
+    <t>email sent to Adrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searched everything on match finder
+</t>
+  </si>
+  <si>
+    <t>2 issues
+ lisa sharp there multiple times (maybe she has multiple emails)
+same issues as before  Like Like (Duplicated)</t>
+  </si>
+  <si>
+    <t>Test71</t>
+  </si>
+  <si>
+    <t>Aborted</t>
+  </si>
+  <si>
+    <t>takes to view profile . I don’t know if we have time but Admin should not display the options to like /etc
+you should have an option to go back</t>
+  </si>
+  <si>
+    <t>when I  view a match  and then like it bring me to chat when it should be in people  who I like box</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Told this is fine</t>
+  </si>
+  <si>
+    <t>Suspend but I don’t know if suspended</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2786,10 +2838,10 @@
   <sheetData>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>223</v>
@@ -2846,7 +2898,7 @@
       <c r="B8" s="36"/>
       <c r="C8" s="33"/>
       <c r="D8" s="19" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2854,7 +2906,7 @@
       <c r="B9" s="36"/>
       <c r="C9" s="33"/>
       <c r="D9" s="19" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
@@ -2864,7 +2916,7 @@
       <c r="B10" s="36"/>
       <c r="C10" s="33"/>
       <c r="D10" s="21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
@@ -2874,7 +2926,7 @@
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
       <c r="D11" s="21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
@@ -2884,7 +2936,7 @@
       <c r="B12" s="37"/>
       <c r="C12" s="34"/>
       <c r="D12" s="21" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -2892,62 +2944,62 @@
     </row>
     <row r="13" spans="2:5" ht="232.5" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>309</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>310</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="93" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>285</v>
@@ -2958,7 +3010,7 @@
     </row>
     <row r="19" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>286</v>
@@ -2969,7 +3021,7 @@
     </row>
     <row r="20" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>287</v>
@@ -2980,7 +3032,7 @@
     </row>
     <row r="21" spans="2:4" ht="93" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>301</v>
@@ -2991,7 +3043,7 @@
     </row>
     <row r="22" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>302</v>
@@ -3002,7 +3054,7 @@
     </row>
     <row r="23" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>303</v>
@@ -3013,7 +3065,7 @@
     </row>
     <row r="24" spans="2:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>304</v>
@@ -3024,90 +3076,90 @@
     </row>
     <row r="25" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>308</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B30" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="26" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3136,58 +3188,58 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3213,57 +3265,57 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3278,11 +3330,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -3331,10 +3383,10 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3516,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3754,7 +3806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>180</v>
       </c>
@@ -3766,6 +3818,9 @@
       </c>
       <c r="E23" t="s">
         <v>240</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -4212,100 +4267,103 @@
         <v>312</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G52" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="G53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4313,23 +4371,101 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>404</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:H57">
+  <autoFilter ref="B1:H63">
     <filterColumn colId="5">
       <filters>
-        <filter val="Open"/>
+        <filter val="open"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5049,7 +5185,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing  Details '!$B$1:$H$63</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="426">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -909,9 +909,6 @@
     <t>FN1</t>
   </si>
   <si>
-    <t>Provide the user with home  page which  Displays the Option to Either Logon or Register</t>
-  </si>
-  <si>
     <t>FN2</t>
   </si>
   <si>
@@ -934,10 +931,6 @@
 </t>
   </si>
   <si>
-    <t>Will display list of people who may be a match for me
-User needs to click on the photos that they want to do an action with</t>
-  </si>
-  <si>
     <t>Meeting Space/Possible Matches</t>
   </si>
   <si>
@@ -947,13 +940,6 @@
     <t>Meeting Space/Possible Matches View Option</t>
   </si>
   <si>
-    <t>User can select photo of possible Match and Select the View Button, this will navigate the user to the next screen to see details of the Person who is a possible Match for me(Described in FNXX)</t>
-  </si>
-  <si>
-    <t>User can select photo of possible Match and Select the Maybe  Button. This will display a question mark under the possible Match phot for future reference.
-Please note this person's photo needs to remain on possible matches box</t>
-  </si>
-  <si>
     <t>Test47</t>
   </si>
   <si>
@@ -978,16 +964,6 @@
     <t>DOB selection allowing to select dates 1900,  DOB called Surname,  Next  to profile 2 takes me back to logon screen</t>
   </si>
   <si>
-    <t>User can select Register from Logon Screen and  will be navigated to Screen to enter Email and Password</t>
-  </si>
-  <si>
-    <t>If User cannot remember password they have the option to select reset password from Logon Screen 
-which will navigate them to screen to enter email and new password will be sent to email</t>
-  </si>
-  <si>
-    <t>User can select photo of possible Match and Select the Like Button. This will  remove the Photo of this person from Possible Matches to People I have liked  View</t>
-  </si>
-  <si>
     <t>Meeting Space/Possible Matches Maybe Option</t>
   </si>
   <si>
@@ -1003,21 +979,12 @@
     <t>Meeting Space/People Who Like Me/like</t>
   </si>
   <si>
-    <t>If the User Notices Something offensive on  another user profile they have the option to Report this person the  Sysadmin team.  Selecting Report will flag the Profile of that person for the SYSADMIN team to check</t>
-  </si>
-  <si>
-    <t>This section of the Meeting Space will provide me with Details of possible matches who liked my profile</t>
-  </si>
-  <si>
     <t>Chat Line</t>
   </si>
   <si>
     <t>Meeting Space/Edit Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting  Space/Edit Profile </t>
-  </si>
-  <si>
     <t>test 49</t>
   </si>
   <si>
@@ -1169,9 +1136,6 @@
   </si>
   <si>
     <t>Screen</t>
-  </si>
-  <si>
-    <t>Same functionality as FNS3.104</t>
   </si>
   <si>
     <t>This is a spontaneous option for the user to decide if they want to change some of their profile information to get meet a partner.  The user is presented with screen Gender Preference, Preferred location, Relationship type, Interests, Seeking Age.  All these  use the drop down screen which limits the user to the Mandatory Choices.</t>
@@ -1311,313 +1275,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Edit Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> allows user to create a new profile or edit exiting profile. User is asked to enter  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Surname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DOB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nearest City/Town</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (allowing drop down option Male, Female, Transgender M-F or F-M ), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preferred Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  (same validation per Gender)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seeking Min Age Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (using slide bar ), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seeking Max Age Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(using slide bar), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Distance User will travel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Using Distance bar)   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Relationship type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Love,Casual,Friendship,Relatioship - Radio Buttons).  Validation limited due to drop down screens and radio buttons.  Mix /Max Age is validated.  Press </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to take user to Second Profile details screen (Personal Details Page2  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FN4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> which brings user back to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meeting Space</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Remove Account</t>
     </r>
     <r>
@@ -1773,119 +1430,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Heading Navigate Bar at the top </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">will display Name of the User and Allow them the option :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit Profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove their Profile from the Site, Logout of the Site</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Match Finder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - this is a spontaneous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SEARCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function which allows the user look for matches under different criteria than stored in their Profile.   Facilitating the user if they are in a different location or indeed if they are looking for a different profile  at that moment.  This information is not stored in the Database </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Possible Matches </t>
     </r>
     <r>
@@ -1898,58 +1442,6 @@
       </rPr>
       <t>Photos allowing the user the  option to Like/Maybe/Goodbye/Report (see FN5)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit Second Profile Page(Personal Details Page 2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Allows the user to load their  Photograph, update some additional information in BIO box and select through radio buttons  Hobbies which are - Music, Sport, Travelling, Sailing, Food, Work,Family,Cooking,Gym  .  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SAVE
-Please note Phot is not saved on profile until date is SAVED. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User can validate this by  viewing Profile after update</t>
-    </r>
-  </si>
-  <si>
-    <t>Meeting Space/Match Finder
-(SEARCH FUNCTIONALITY)</t>
-  </si>
-  <si>
-    <t>User can select photo of person who liked their Profile . Select the Like Button. If both users have liked each other this will automatically  initiate the option to chat screen</t>
   </si>
   <si>
     <t>This option allows the Admin to manage the site.  
@@ -1960,16 +1452,8 @@
     <t>Blacklist words can only be maintained using SQL statements by the DBA</t>
   </si>
   <si>
-    <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa.
-Chat begins - the system will automatically check  conversation and dentifies the use of black listed words and reports this to the Systadmin  if the word is used more than 5 times.
-It also takes the liberty of  blocking communication being seen by the other user</t>
-  </si>
-  <si>
     <t>Click Photo to view why this person was reported.
 If there is evidence of an offence the Sysadmin can suspend the user for 1 month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   FN5.105</t>
   </si>
   <si>
     <t>Test67</t>
@@ -2037,6 +1521,791 @@
   </si>
   <si>
     <t>Suspend but I don’t know if suspended</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide the user with home  page which  Displays the Option to Either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can select Register from Logon Screen and  will be navigated to Screen to enter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If User cannot remember password they have the option to select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reset password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Logon Screen 
+which will navigate them to screen to enter email and new password will be sent to email</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   FN5.106</t>
+  </si>
+  <si>
+    <t>FN5.105</t>
+  </si>
+  <si>
+    <t>Administrator Options - Menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Heading Navigate Bar at the top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will display Name of the User and Allow them the option :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove their Profile from the Site, Help and Logout of the Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Match Finder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - this is a spontaneous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEARCH/BROWSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function which allows the user look for matches under different criteria than stored in their Profile.   Facilitating the user if they are in a different location or indeed if they are looking for a different profile  at that moment.  Thissearch criteria is not stored in the Database 
+Also please note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HELP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function to explain how  to work app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows user to create a new profile or edit exiting profile. User is asked to enter  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nearest City/Town</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (allowing drop down option Male, Female, Transgender M-F or F-M ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preferred Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (same validation per Gender)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Min Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (using slide bar ), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seeking Max Age Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(using slide bar), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distance User will travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Using Distance bar)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Relationship type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Love,Casual,Friendship,Relatioship - Radio Buttons).  Validation limited due to drop down screens and radio buttons.  Mix /Max Age is validated.  Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to take user to Second Profile details screen (Personal Details Page2  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FN4.101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which brings user back to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting Space</t>
+    </r>
+  </si>
+  <si>
+    <t>Meeting  Space/Edit Profile 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Second Profile Page(Personal Details Page 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Allows the user to load their  Photograph, update some additional information in BIO box and select through radio buttons  Hobbies which are - Music, Sport, Travelling, Sailing, Food, Work,Family,Cooking,Gym  .  (User  is not oblidged to select a hobby/Interest)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SAVE
+Please note Photo is not saved on profile until  ave button is pressed. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User can validate this by  viewing Profile after update</t>
+    </r>
+  </si>
+  <si>
+    <t>Meeting Space/Match Finder
+(SEARCH/BROWSE  FUNCTIONALITY)</t>
+  </si>
+  <si>
+    <t>Will display list of people who may be a match for me
+User needs to click on the photos that they want to do an action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can select photo of possible Match and Select the Like Button. This will  remove the Photo of this person from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Possible Matches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>People I have liked  View</t>
+    </r>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the View Button, this will navigate the user to the next screen to see details of the Person who is a possible Match for me</t>
+  </si>
+  <si>
+    <t>User can select photo of possible Match and Select the Maybe  Button. This will display a question mark under the possible Match photo for future reference.
+Please note this person's photo needs to remain on possible matches box</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the User Notices Something offensive on  another user profile they have the option to Report this person the  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sysadmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> team.  Selecting Report will flag the Profile of that person for the SYSADMIN team to check</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This section of the Meeting Space will provide me with Details of possible matches who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can select photo of person who liked their Profile . Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Button. If both users have liked each other this will automatically  initiate the option to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa.
+Chat begins - the system will automatically check  conversation and dentifies the use of black listed words and reports this to the Systadmin  if the word is used more than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times.
+It also takes the liberty of  blocking communication being seen by the other user</t>
+    </r>
+  </si>
+  <si>
+    <t>Same functionality as FNS3.103</t>
+  </si>
+  <si>
+    <t>At all time when the Admin is in navigating throuhg menus's they can click on their name on the Bar line and this will take back to home screen</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2363,12 +2632,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2448,23 +2728,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2474,6 +2742,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2822,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E32"/>
+  <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,10 +3124,10 @@
   <sheetData>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>223</v>
@@ -2852,10 +3138,10 @@
         <v>275</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -2863,80 +3149,80 @@
     </row>
     <row r="5" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>269</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="19" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="19" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="21" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="37"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="21" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -2944,222 +3230,244 @@
     </row>
     <row r="13" spans="2:5" ht="232.5" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="139.5" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>310</v>
+        <v>315</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>413</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>309</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="93" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>323</v>
+        <v>317</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>313</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>395</v>
+        <v>318</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>415</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>286</v>
+        <v>320</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>284</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>300</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>287</v>
+        <v>321</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>285</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="93" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>301</v>
+        <v>322</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>302</v>
+        <v>323</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>303</v>
+        <v>324</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>296</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>306</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>307</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>305</v>
+        <v>326</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>308</v>
+        <v>327</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="17" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>354</v>
+        <v>340</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>344</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B30" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="31" t="s">
-        <v>357</v>
+      <c r="B31" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>365</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>410</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>398</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3188,58 +3496,58 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3265,57 +3573,57 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3332,9 +3640,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3516,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3820,7 +4128,7 @@
         <v>240</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -4130,7 +4438,7 @@
         <v>251</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E43" t="s">
         <v>242</v>
@@ -4227,13 +4535,13 @@
     </row>
     <row r="48" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -4241,19 +4549,19 @@
     </row>
     <row r="49" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
         <v>239</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -4261,10 +4569,10 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -4273,15 +4581,15 @@
         <v>59</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
@@ -4290,15 +4598,15 @@
         <v>21</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
@@ -4307,21 +4615,21 @@
         <v>21</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G53" t="s">
         <v>21</v>
@@ -4329,13 +4637,13 @@
     </row>
     <row r="54" spans="2:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
         <v>6</v>
@@ -4343,13 +4651,13 @@
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -4357,13 +4665,13 @@
     </row>
     <row r="56" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4371,13 +4679,13 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G57" t="s">
         <v>21</v>
@@ -4385,75 +4693,75 @@
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
         <v>402</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G58" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5185,7 +5493,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +5507,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="429">
   <si>
     <t xml:space="preserve">lot of informaiton -  </t>
   </si>
@@ -1144,9 +1144,6 @@
     <t>Deirdre to recheck</t>
   </si>
   <si>
-    <t>Black list of words</t>
-  </si>
-  <si>
     <t>Black  List words</t>
   </si>
   <si>
@@ -1444,14 +1441,6 @@
     </r>
   </si>
   <si>
-    <t>This option allows the Admin to manage the site.  
-User has to log on with Specific Logon and Password (Details outlined in Useful Password Section )
-Once user successful logs in they will be pesented with Admin screen and a phot of users who have been reported  by other users or who haeve been automatically reporting due to the use of bad language</t>
-  </si>
-  <si>
-    <t>Blacklist words can only be maintained using SQL statements by the DBA</t>
-  </si>
-  <si>
     <t>Click Photo to view why this person was reported.
 If there is evidence of an offence the Sysadmin can suspend the user for 1 month</t>
   </si>
@@ -2227,6 +2216,9 @@
     </r>
   </si>
   <si>
+    <t>Same functionality as FNS3.103</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">User can select photo of person who liked their Profile . Select the </t>
     </r>
@@ -2270,13 +2262,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa.
-Chat begins - the system will automatically check  conversation and dentifies the use of black listed words and reports this to the Systadmin  if the word is used more than </t>
+      <t xml:space="preserve"> screen
+This supports the concept of mutual concent</t>
+    </r>
+  </si>
+  <si>
+    <t>This option allows the Admin to manage the site.  
+User has to log on with Specific Logon and Password (Details outlined in Useful Password Section )
+Once user successful logs in they will be pesented with Admin screen and photos of users who have been reported  by other users or who have been automatically reporting due to the use of bad language. It will also display the person who reported them</t>
+  </si>
+  <si>
+    <t>This screen is initiated from the meeting space screen.  User can send message to proposed match and start conversations and visa versa.
+Chat begins - the system will automatically check  conversation and identifies the use of black listed words . If more than 5 messages containing black listed words are detected then the account is automatically suspended for 7 days. It also takes the liberty of  blocking the visability of the black listed words to the other user</t>
+  </si>
+  <si>
+    <t>Administrator - Options - Revoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FN5.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ can only be maintained using SQL statements by the DBA</t>
+  </si>
+  <si>
+    <t>Black list of words, Interests(Hobbies) and Status Master</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At all time when the Admin is in navigating throuhg menus's they can click on their name on the </t>
     </r>
     <r>
       <rPr>
@@ -2287,25 +2301,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times.
-It also takes the liberty of  blocking communication being seen by the other user</t>
-    </r>
-  </si>
-  <si>
-    <t>Same functionality as FNS3.103</t>
-  </si>
-  <si>
-    <t>At all time when the Admin is in navigating throuhg menus's they can click on their name on the Bar line and this will take back to home screen</t>
+      <t>Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line and this will take back to home screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Admin has the option to revoke a suspension or a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2430,7 +2463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2643,12 +2676,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2734,14 +2780,14 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2752,14 +2798,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3110,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="B28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,7 +3190,7 @@
         <v>279</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -3155,7 +3204,7 @@
         <v>269</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" x14ac:dyDescent="0.35">
@@ -3166,11 +3215,11 @@
         <v>280</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="37" t="s">
         <v>278</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -3181,48 +3230,48 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="35"/>
       <c r="D8" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="32"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="35"/>
       <c r="D9" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="32"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="35"/>
       <c r="D10" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="35"/>
       <c r="D11" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="36"/>
       <c r="D12" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -3232,52 +3281,52 @@
       <c r="B13" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="31" t="s">
         <v>300</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>413</v>
+      <c r="C14" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>309</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="93" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="116.25" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>415</v>
+      <c r="C17" s="33" t="s">
+        <v>412</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>352</v>
@@ -3291,47 +3340,47 @@
         <v>283</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="31" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="31" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="93" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="31" t="s">
         <v>294</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="31" t="s">
         <v>295</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -3342,11 +3391,11 @@
       <c r="B23" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="31" t="s">
         <v>296</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -3357,40 +3406,40 @@
         <v>297</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="93" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="31" t="s">
         <v>298</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="31" t="s">
         <v>299</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="139.5" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="31" t="s">
         <v>329</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -3408,11 +3457,11 @@
       <c r="B29" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="31" t="s">
         <v>344</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -3434,40 +3483,40 @@
         <v>349</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="38" t="s">
-        <v>409</v>
+      <c r="B32" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>354</v>
+        <v>405</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>423</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="26" t="s">
-        <v>101</v>
+        <v>424</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3496,58 +3545,58 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3573,57 +3622,57 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4177,7 @@
         <v>240</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -4626,7 +4675,7 @@
         <v>311</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>312</v>
@@ -4671,7 +4720,7 @@
         <v>338</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
@@ -4693,75 +4742,75 @@
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="G58" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G59" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="G60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5493,7 +5542,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Reports/Action List.xlsx
+++ b/Reports/Action List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="2" r:id="rId1"/>
@@ -2116,10 +2116,6 @@
 (SEARCH/BROWSE  FUNCTIONALITY)</t>
   </si>
   <si>
-    <t>Will display list of people who may be a match for me
-User needs to click on the photos that they want to do an action</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">User can select photo of possible Match and Select the Like Button. This will  remove the Photo of this person from </t>
     </r>
@@ -2338,6 +2334,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Will display list of people who may be a match for me
+User needs to click on the photos that they want to do an action
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please note we have provided the user the ability to see all possible matches even those who do not match their preferred Gender</t>
     </r>
   </si>
 </sst>
@@ -2789,6 +2803,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2806,9 +2823,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3159,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,10 +3233,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -3230,16 +3244,16 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="19" t="s">
         <v>408</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="19" t="s">
         <v>374</v>
       </c>
@@ -3248,8 +3262,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="38"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21" t="s">
         <v>379</v>
       </c>
@@ -3258,8 +3272,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="38"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="21" t="s">
         <v>375</v>
       </c>
@@ -3268,8 +3282,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="21" t="s">
         <v>376</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>319</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>283</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -3351,7 +3365,7 @@
         <v>284</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -3362,7 +3376,7 @@
         <v>285</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="93" x14ac:dyDescent="0.35">
@@ -3373,7 +3387,7 @@
         <v>294</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="69.75" x14ac:dyDescent="0.35">
@@ -3395,7 +3409,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -3406,7 +3420,7 @@
         <v>297</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="93" x14ac:dyDescent="0.35">
@@ -3417,7 +3431,7 @@
         <v>298</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
@@ -3428,7 +3442,7 @@
         <v>299</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="162.75" x14ac:dyDescent="0.35">
@@ -3439,7 +3453,7 @@
         <v>329</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -3483,7 +3497,7 @@
         <v>349</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -3494,29 +3508,29 @@
         <v>407</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>423</v>
+      <c r="C33" s="34" t="s">
+        <v>422</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>424</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
